--- a/ADCVD_SCRIPT/input_data/script/--gui_map.xlsx
+++ b/ADCVD_SCRIPT/input_data/script/--gui_map.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{353EF654-959F-4CE1-8CA2-176A5D9FFAFE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6C8DF2-159A-4A0A-A14D-1AD6433EBD8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7380" tabRatio="475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:XFC88"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
